--- a/biology/Médecine/Giuseppe_Saverio_Poli/Giuseppe_Saverio_Poli.xlsx
+++ b/biology/Médecine/Giuseppe_Saverio_Poli/Giuseppe_Saverio_Poli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Saverio Poli (aussi : Xavier Poli) (né le 28 octobre 1746 à Molfetta et mort le 7 avril 1825 à Naples) est un physicien, un médecin et un naturaliste italien.
 Il a exercé sa curiosité et publié sur plusieurs domaines de la connaissance scientifique, mais il doit l’essentiel de sa notoriété internationale actuelle à ses recherches sur les invertébrés marins, surtout mollusques.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Saverio Poli naquit en 1746 à Molfetta, petite ville des Pouilles, d’une famille honorable et aisée. Après avoir fait le cours de collège dans son pays, il fut envoyé par son père à l’Université de Padoue, où il étudia les langues anciennes, les mathématiques, la physique, la botanique et la médecine, et eut pour maîtres Facciolati, Poleni, Arduini, Caldani et Morgagni. Ce dernier lui voua une affection qui dura toute sa vie. Revenu dans sa patrie, Poli exerça la médecine, puis y renonça tout à fait pour se livrer exclusivement à l’étude des sciences naturelles. Après avoir visité les principales villes d’Italie, il alla se fixer à Naples, où il ne tarda pas à se distinguer autant par l’élégance de ses manières et de son langage que par l’étendue de ses connaissances. En 1776 il fut nommé professeur de géographie à l’académie militaire, puis envoyé par le roi en France, en Angleterre et en Allemagne, afin d’y visiter les principaux établissements d’instruction publique et acheter des instruments de physique pour l’académie militaire. À son retour à Naples il fut appelé à la chaire de physique expérimentale établie dans le grand hospice des incurables. Peu d’années après, le roi Ferdinand IV le choisit pour précepteur de son fils aîné, qui régna depuis sous le nom de François Ier. La célébrité de Poli, déjà grande à cette époque, prit un nouveau lustre par la publication des Testacés des Deux-Siciles, ouvrage qui, préparé de longue main avec soin, fit faire un pas immense à cette partie de l’histoire naturelle. Lister, Swammerdam, Willis, Heide, Adamson, Muller, s’en étaient occupés avant lui, mais leurs travaux incomplets ne sauraient être comparés à ceux du savant napolitain. Il avait employé douze ans à rassembler des coquilles, à entretenir des viviers, à disséquer des mollusques, à instruire les artistes chargés de dessiner et de colorier les planches. Déjà il avait publié deux volumes, et il préparait le troisième lorsque les événements politiques le forcèrent à abandonner ses riches collections, dont une partie fut envoyée à Paris en 1799 pour enrichir le musée d’histoire naturelle. Poli accompagna la famille royale dans ses deux exils et dans ses deux retours, et il ne tint pas à lui que la restauration napolitaine ne réagît chaque fois avec moins de cruauté et de violence. Il ne laissa échapper aucune occasion de protéger les lettres et les sciences auprès du gouvernement. C’est par ses soins surtout que la bibliothèque bourbonienne de Naples fut agrandie et ouverte au public, qu’un jardin botanique fut établi sur le mont Olivet, que le musée d’histoire naturelle fut augmenté de plusieurs milliers d’espèces de testacés, de crustacés, d’insectes et de minéraux. Aussi François Ier a-t-il voulu que cette partie du musée portât le nom de Poli. Ce savant avait de plus des connaissances fort étendues en numismatique, et il possédait une magnifique collection de médailles dont il fit don à son souverain. Atteint d’une grave et douloureuse maladie, il supporta ses souffrances avec une résignation toute chrétienne et mourut en avril 1825, après avoir chargé par testament Stefano Delle Chiaje, son ancien élève, professeur de médecine à l’Université de Naples, de coordonner la partie de ses manuscrits qui avait rapport aux testacés.
 </t>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lezioni di geografia e di storia militare, Naples, 1777, 2 vol. in-8° ; ouvrage destiné à l’enseignement des élèves de l’école militaire ;
 Ragionamento intorno allo studio della natura, Naples, 1781, in-8° ;
